--- a/biology/Zoologie/Bullmastiff/Bullmastiff.xlsx
+++ b/biology/Zoologie/Bullmastiff/Bullmastiff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bullmastiff (parfois orthographié bull mastiff) est un dogue d'origine britannique. La pression de la mâchoire du bullmastiff peut atteindre 552 PSI. 
@@ -512,7 +524,9 @@
           <t>Caractère et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa construction est puissante mais harmonieuse dans ses formes, il donne une grande impression de force mais sans lourdeur. Il est doté d'une tête forte et carrée, son corps est compact et ramassé. Son poil est court avec un sous-poil dense, sa robe est fauve ou bringée. 
 Son poids varie d'une quarantaine à une soixantaine de kilos pour une taille au garrot allant de 61 à 69 cm.
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bullmastiff fut créé au début du XIXe siècle pour lutter contre le braconnage nocturne[réf. nécessaire]. Les propriétaires terriens britanniques cherchèrent à obtenir par des croisements entre le mastiff (grand et lourd) et un ancien type de bulldog anglais (rapide et actif, un chien apte à cet usage). C'était alors le chien des garde-chasses ; il devait être capable de plaquer un homme à terre et de l'y maintenir en attendant les ordres. Il fut par la suite utilisé comme chien policier.
 </t>
